--- a/Excel_sales_actuals_vs_plan_dashboard.xlsx
+++ b/Excel_sales_actuals_vs_plan_dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CodeF\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A518659C-8863-4086-8B8B-4E6DB6CA295D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC8A652-4915-4436-ABAE-6ECC1950869C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{D1DB7853-8269-4CBE-A617-5CDEA2B704F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D1DB7853-8269-4CBE-A617-5CDEA2B704F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -993,8 +993,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.5180695162370506E-3"/>
-          <c:y val="0.45833333333333331"/>
+          <c:x val="6.4819027339371223E-3"/>
+          <c:y val="1.1021587554745565E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1059,7 +1059,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="84E291"/>
+              <a:srgbClr val="84E291">
+                <a:alpha val="45490"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1104,24 +1106,12 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1207,7 +1197,7 @@
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
                   <a:solidFill>
-                    <a:srgbClr val="F2AA84"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -1290,12 +1280,54 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                  <a:alpha val="28000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="764273392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2437,14 +2469,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>220674</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>368922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>141716</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2472,15 +2504,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>318505</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>601579</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80211</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2844,8 +2876,8 @@
   </sheetPr>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
       <extLst>
         <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
           <xlsdti:showDataTypeIcons visible="0"/>
@@ -8183,7 +8215,7 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:M13"/>
     </sheetView>
   </sheetViews>
